--- a/Empirical Application/Estimates/emp_app_rf_c3_L5_hstar.xlsx
+++ b/Empirical Application/Estimates/emp_app_rf_c3_L5_hstar.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>40.36103787420133</v>
+        <v>41.67124893688503</v>
       </c>
       <c r="D2">
-        <v>1.768720579273865</v>
+        <v>1.607666899242024</v>
       </c>
       <c r="E2">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F2">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="H2">
-        <v>0.01050622173665152</v>
+        <v>0.008743557138844699</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>41.78401443169653</v>
+        <v>42.61779296785603</v>
       </c>
       <c r="D3">
-        <v>1.625194436852322</v>
+        <v>1.495207414055137</v>
       </c>
       <c r="E3">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F3">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="H3">
-        <v>0.009653674706353485</v>
+        <v>0.008131927991662404</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>42.73475668197572</v>
+        <v>43.24313759373642</v>
       </c>
       <c r="D4">
-        <v>1.556979346423495</v>
+        <v>1.449112878191237</v>
       </c>
       <c r="E4">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F4">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="H4">
-        <v>0.009248476240168838</v>
+        <v>0.007881235383445767</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>43.95966953734187</v>
+        <v>44.28115084616645</v>
       </c>
       <c r="D5">
-        <v>1.489673064553434</v>
+        <v>1.398422876508</v>
       </c>
       <c r="E5">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F5">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="H5">
-        <v>0.00884867610786827</v>
+        <v>0.00760554958914691</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.43100657017527</v>
+        <v>45.47487335718174</v>
       </c>
       <c r="D6">
-        <v>1.435909146408483</v>
+        <v>1.348145961910952</v>
       </c>
       <c r="E6">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F6">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G6">
-        <v>0.03168730434983713</v>
+        <v>0.02377265262685446</v>
       </c>
       <c r="H6">
-        <v>0.008529317780679058</v>
+        <v>0.007332110435954563</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>46.56458037303136</v>
+        <v>46.54060571408717</v>
       </c>
       <c r="D7">
-        <v>1.393874113375131</v>
+        <v>1.308670799981986</v>
       </c>
       <c r="E7">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F7">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G7">
-        <v>0.02987853713334272</v>
+        <v>0.02451757966394461</v>
       </c>
       <c r="H7">
-        <v>0.008279629173597222</v>
+        <v>0.007117418366313898</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>47.34082777694201</v>
+        <v>47.19201833903859</v>
       </c>
       <c r="D8">
-        <v>1.365814995456546</v>
+        <v>1.272586640099556</v>
       </c>
       <c r="E8">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F8">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G8">
-        <v>0.02878794434353931</v>
+        <v>0.02468050465813856</v>
       </c>
       <c r="H8">
-        <v>0.008112957672150378</v>
+        <v>0.006921168811205196</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>47.65637974818406</v>
+        <v>47.57403590509238</v>
       </c>
       <c r="D9">
-        <v>1.339551236627482</v>
+        <v>1.248787964923071</v>
       </c>
       <c r="E9">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F9">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G9">
-        <v>0.0231044388177637</v>
+        <v>0.02058053161828708</v>
       </c>
       <c r="H9">
-        <v>0.007956950625514801</v>
+        <v>0.006791735856945512</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>47.8219682440663</v>
+        <v>47.82742449512752</v>
       </c>
       <c r="D10">
-        <v>1.338070142415588</v>
+        <v>1.233809400890184</v>
       </c>
       <c r="E10">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F10">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G10">
-        <v>0.01494351046181892</v>
+        <v>0.01470344461216109</v>
       </c>
       <c r="H10">
-        <v>0.007948152907895991</v>
+        <v>0.006710272507453687</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>47.80007508046964</v>
+        <v>47.82272719453828</v>
       </c>
       <c r="D11">
-        <v>1.334728290627159</v>
+        <v>1.217452771205145</v>
       </c>
       <c r="E11">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F11">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G11">
-        <v>0.007721841921489237</v>
+        <v>0.008013259252819437</v>
       </c>
       <c r="H11">
-        <v>0.007928302267658244</v>
+        <v>0.006621314324438604</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>47.66994954097101</v>
+        <v>47.56849626992933</v>
       </c>
       <c r="D12">
-        <v>1.325303494016221</v>
+        <v>1.205063241594242</v>
       </c>
       <c r="E12">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F12">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G12">
-        <v>0.002057011025181277</v>
+        <v>0.002352987068067103</v>
       </c>
       <c r="H12">
-        <v>0.007872318861247037</v>
+        <v>0.006553931858501528</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.36717715825683</v>
+        <v>47.38706456290566</v>
       </c>
       <c r="D13">
-        <v>1.304891533415556</v>
+        <v>1.194477906216937</v>
       </c>
       <c r="E13">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F13">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G13">
-        <v>-0.001807516187045177</v>
+        <v>-0.00116857088866702</v>
       </c>
       <c r="H13">
-        <v>0.007751071567206718</v>
+        <v>0.006496361795481051</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.0989214074663</v>
+        <v>47.20583232748037</v>
       </c>
       <c r="D14">
-        <v>1.29964314004893</v>
+        <v>1.190452294501613</v>
       </c>
       <c r="E14">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F14">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G14">
-        <v>-0.004519042728749989</v>
+        <v>-0.003884951047794649</v>
       </c>
       <c r="H14">
-        <v>0.007719896046823741</v>
+        <v>0.006474467853353902</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>46.6193845921096</v>
+        <v>46.95886406615703</v>
       </c>
       <c r="D15">
-        <v>1.306235273403621</v>
+        <v>1.195973910175266</v>
       </c>
       <c r="E15">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F15">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G15">
-        <v>-0.007379315552250265</v>
+        <v>-0.00539914455238284</v>
       </c>
       <c r="H15">
-        <v>0.007759053399066678</v>
+        <v>0.006504498055607918</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>46.3369729605809</v>
+        <v>46.72484097542524</v>
       </c>
       <c r="D16">
-        <v>1.320954104173498</v>
+        <v>1.202662079407633</v>
       </c>
       <c r="E16">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F16">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G16">
-        <v>-0.008331103627438186</v>
+        <v>-0.005272845590650554</v>
       </c>
       <c r="H16">
-        <v>0.007846483432721889</v>
+        <v>0.006540872748565169</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>46.54764234945424</v>
+        <v>46.72084053257171</v>
       </c>
       <c r="D17">
-        <v>1.346273397093882</v>
+        <v>1.211421401065813</v>
       </c>
       <c r="E17">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F17">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G17">
-        <v>-0.005122092555016167</v>
+        <v>-0.004163900189587189</v>
       </c>
       <c r="H17">
-        <v>0.007996880340381545</v>
+        <v>0.006588511739858655</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.2734432593684</v>
+        <v>46.78111637424269</v>
       </c>
       <c r="D18">
-        <v>1.368416405793951</v>
+        <v>1.230706203223233</v>
       </c>
       <c r="E18">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F18">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G18">
-        <v>-0.005159238425611878</v>
+        <v>-0.002654474707735499</v>
       </c>
       <c r="H18">
-        <v>0.008128410081170245</v>
+        <v>0.006693395263711896</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.3864409371961</v>
+        <v>46.84452236545862</v>
       </c>
       <c r="D19">
-        <v>1.395416811760555</v>
+        <v>1.251198613402112</v>
       </c>
       <c r="E19">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F19">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G19">
-        <v>-0.001455897843209364</v>
+        <v>-0.0007146356293650236</v>
       </c>
       <c r="H19">
-        <v>0.008288792820755493</v>
+        <v>0.006804846559621608</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>46.60498622821957</v>
+        <v>47.20796699554209</v>
       </c>
       <c r="D20">
-        <v>1.408917346234524</v>
+        <v>1.281102853457087</v>
       </c>
       <c r="E20">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F20">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G20">
-        <v>0.0016750829227417</v>
+        <v>0.003019537625730306</v>
       </c>
       <c r="H20">
-        <v>0.008368986159606708</v>
+        <v>0.006967485618581942</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.22148573499902</v>
+        <v>47.52900672303898</v>
       </c>
       <c r="D21">
-        <v>1.421957801528576</v>
+        <v>1.297277263174049</v>
       </c>
       <c r="E21">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F21">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G21">
-        <v>0.004211521159654863</v>
+        <v>0.005051038690420473</v>
       </c>
       <c r="H21">
-        <v>0.008446446622537743</v>
+        <v>0.007055452768750936</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>47.62407206229149</v>
+        <v>47.93125125299256</v>
       </c>
       <c r="D22">
-        <v>1.449932191036806</v>
+        <v>1.315538075147476</v>
       </c>
       <c r="E22">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F22">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G22">
-        <v>0.008441430018269313</v>
+        <v>0.007188342992186669</v>
       </c>
       <c r="H22">
-        <v>0.008612614836197349</v>
+        <v>0.007154767155933153</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>48.11817498687811</v>
+        <v>48.3228787027171</v>
       </c>
       <c r="D23">
-        <v>1.466292610728131</v>
+        <v>1.331072848259227</v>
       </c>
       <c r="E23">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F23">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G23">
-        <v>0.01082333781051257</v>
+        <v>0.00923972710786547</v>
       </c>
       <c r="H23">
-        <v>0.00870979592799666</v>
+        <v>0.00723925553869803</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>48.56593880813643</v>
+        <v>48.51722002636058</v>
       </c>
       <c r="D24">
-        <v>1.489561014733847</v>
+        <v>1.344282331009813</v>
       </c>
       <c r="E24">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F24">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G24">
-        <v>0.01225595362448035</v>
+        <v>0.008182831442615602</v>
       </c>
       <c r="H24">
-        <v>0.008848010530578149</v>
+        <v>0.00731109745275298</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>48.28973448369398</v>
+        <v>48.41962644929522</v>
       </c>
       <c r="D25">
-        <v>1.480450591564903</v>
+        <v>1.353895646254992</v>
       </c>
       <c r="E25">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F25">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G25">
-        <v>0.006676554679343472</v>
+        <v>0.005566373289101501</v>
       </c>
       <c r="H25">
-        <v>0.008793894506233057</v>
+        <v>0.007363381026657238</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>48.18615938378132</v>
+        <v>48.41192693033257</v>
       </c>
       <c r="D26">
-        <v>1.494627374779099</v>
+        <v>1.358668253736822</v>
       </c>
       <c r="E26">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F26">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G26">
-        <v>0.003513045759311462</v>
+        <v>0.00300422298337506</v>
       </c>
       <c r="H26">
-        <v>0.008878104770819862</v>
+        <v>0.007389337626397104</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>48.03178795057889</v>
+        <v>48.2528804161117</v>
       </c>
       <c r="D27">
-        <v>1.521749562652821</v>
+        <v>1.364178746863642</v>
       </c>
       <c r="E27">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F27">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G27">
-        <v>-0.0005399189768701351</v>
+        <v>-0.0004374892912837325</v>
       </c>
       <c r="H27">
-        <v>0.009039210896413442</v>
+        <v>0.007419307336876482</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>47.97486441473417</v>
+        <v>47.91059824716486</v>
       </c>
       <c r="D28">
-        <v>1.537877671836017</v>
+        <v>1.380779290381274</v>
       </c>
       <c r="E28">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F28">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G28">
-        <v>-0.003694214958764119</v>
+        <v>-0.00379138611997325</v>
       </c>
       <c r="H28">
-        <v>0.009135012060971129</v>
+        <v>0.007509592084824409</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>47.61670211759609</v>
+        <v>47.6719849423369</v>
       </c>
       <c r="D29">
-        <v>1.54291695035346</v>
+        <v>1.389073385614118</v>
       </c>
       <c r="E29">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F29">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G29">
-        <v>-0.004206452288111784</v>
+        <v>-0.004672759418489525</v>
       </c>
       <c r="H29">
-        <v>0.009164945436608528</v>
+        <v>0.007554700866760259</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>47.02515763393372</v>
+        <v>47.20762101116539</v>
       </c>
       <c r="D30">
-        <v>1.561072933661614</v>
+        <v>1.383126330511562</v>
       </c>
       <c r="E30">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F30">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G30">
-        <v>-0.007256260936547498</v>
+        <v>-0.007526911994794894</v>
       </c>
       <c r="H30">
-        <v>0.009272792198113796</v>
+        <v>0.007522356843180765</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.51930529894118</v>
+        <v>46.74537979571613</v>
       </c>
       <c r="D31">
-        <v>1.597264285991984</v>
+        <v>1.405334687260584</v>
       </c>
       <c r="E31">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F31">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G31">
-        <v>-0.009453016572735696</v>
+        <v>-0.009421878877472301</v>
       </c>
       <c r="H31">
-        <v>0.009487769270800002</v>
+        <v>0.00764314059277869</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.34968412650549</v>
+        <v>46.3245389214069</v>
       </c>
       <c r="D32">
-        <v>1.597039257157718</v>
+        <v>1.417278162962148</v>
       </c>
       <c r="E32">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F32">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G32">
-        <v>-0.01015737680142927</v>
+        <v>-0.009912870785987283</v>
       </c>
       <c r="H32">
-        <v>0.009486432596789624</v>
+        <v>0.007708097122195489</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.72655756787687</v>
+        <v>45.64055908417615</v>
       </c>
       <c r="D33">
-        <v>1.617235524195148</v>
+        <v>1.428318380251999</v>
       </c>
       <c r="E33">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F33">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G33">
-        <v>-0.01181340343574515</v>
+        <v>-0.0126964116135047</v>
       </c>
       <c r="H33">
-        <v>0.00960639866844294</v>
+        <v>0.007768141134263278</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>44.98289431660133</v>
+        <v>44.97883391957774</v>
       </c>
       <c r="D34">
-        <v>1.60429065476402</v>
+        <v>1.436279377678599</v>
       </c>
       <c r="E34">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F34">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G34">
-        <v>-0.01276414573332745</v>
+        <v>-0.0139299193224228</v>
       </c>
       <c r="H34">
-        <v>0.009529505986699358</v>
+        <v>0.007811438309763059</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>44.65293749327171</v>
+        <v>44.61628781518746</v>
       </c>
       <c r="D35">
-        <v>1.611821410768519</v>
+        <v>1.443393070395007</v>
       </c>
       <c r="E35">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F35">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G35">
-        <v>-0.01166479878543418</v>
+        <v>-0.01330682487830419</v>
       </c>
       <c r="H35">
-        <v>0.009574238768889503</v>
+        <v>0.007850127281193288</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>43.87464176524527</v>
+        <v>44.34401892943006</v>
       </c>
       <c r="D36">
-        <v>1.629962974565847</v>
+        <v>1.449517048408492</v>
       </c>
       <c r="E36">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F36">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G36">
-        <v>-0.01546901475787634</v>
+        <v>-0.01237824994985526</v>
       </c>
       <c r="H36">
-        <v>0.009681999878325222</v>
+        <v>0.007883433528714574</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>43.85792904902151</v>
+        <v>43.97491298462654</v>
       </c>
       <c r="D37">
-        <v>1.622990972800844</v>
+        <v>1.455862122481545</v>
       </c>
       <c r="E37">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F37">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G37">
-        <v>-0.011678928242846</v>
+        <v>-0.01041028812218503</v>
       </c>
       <c r="H37">
-        <v>0.009640586103108381</v>
+        <v>0.007917942243009866</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>43.72869190431945</v>
+        <v>43.79902204259707</v>
       </c>
       <c r="D38">
-        <v>1.68994412747224</v>
+        <v>1.468180053137192</v>
       </c>
       <c r="E38">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F38">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G38">
-        <v>-0.007838765076761778</v>
+        <v>-0.007373824231129156</v>
       </c>
       <c r="H38">
-        <v>0.01003828865555722</v>
+        <v>0.007984935306417936</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>42.76218995839373</v>
+        <v>43.50242481135586</v>
       </c>
       <c r="D39">
-        <v>1.701413217143114</v>
+        <v>1.485317942114501</v>
       </c>
       <c r="E39">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F39">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G39">
-        <v>-0.01181717209298734</v>
+        <v>-0.006961643773947523</v>
       </c>
       <c r="H39">
-        <v>0.01010641518758933</v>
+        <v>0.008078142494786949</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>42.64501302620172</v>
+        <v>43.09269756808372</v>
       </c>
       <c r="D40">
-        <v>1.721599608641822</v>
+        <v>1.511700903844204</v>
       </c>
       <c r="E40">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F40">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G40">
-        <v>-0.00768517961902222</v>
+        <v>-0.007820758508414594</v>
       </c>
       <c r="H40">
-        <v>0.01022632259842261</v>
+        <v>0.008221630510547161</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>42.54406477045855</v>
+        <v>43.04501314344754</v>
       </c>
       <c r="D41">
-        <v>1.724258779874354</v>
+        <v>1.537017619426277</v>
       </c>
       <c r="E41">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F41">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G41">
-        <v>-0.0082116517410185</v>
+        <v>-0.005811874007368756</v>
       </c>
       <c r="H41">
-        <v>0.01024211810786152</v>
+        <v>0.008359319573725672</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>42.83835705958233</v>
+        <v>43.03182030502391</v>
       </c>
       <c r="D42">
-        <v>1.802020751361674</v>
+        <v>1.567092228906694</v>
       </c>
       <c r="E42">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F42">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G42">
-        <v>-0.005564592779606992</v>
+        <v>-0.004795010859832249</v>
       </c>
       <c r="H42">
-        <v>0.01070402516355958</v>
+        <v>0.008522885214434232</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>43.02036196710028</v>
+        <v>43.12032087721317</v>
       </c>
       <c r="D43">
-        <v>1.873106185720748</v>
+        <v>1.59464944552153</v>
       </c>
       <c r="E43">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F43">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G43">
-        <v>0.001613575054415905</v>
+        <v>-0.002388149588391819</v>
       </c>
       <c r="H43">
-        <v>0.011126273507574</v>
+        <v>0.008672759605810295</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>43.67002301466012</v>
+        <v>43.23328836386224</v>
       </c>
       <c r="D44">
-        <v>1.935132308258727</v>
+        <v>1.620157213935352</v>
       </c>
       <c r="E44">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F44">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G44">
-        <v>0.006406312427865002</v>
+        <v>0.0008786924736157609</v>
       </c>
       <c r="H44">
-        <v>0.01149470942927072</v>
+        <v>0.008811487740796356</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>44.24382807626534</v>
+        <v>43.38338295383233</v>
       </c>
       <c r="D45">
-        <v>1.992522062173208</v>
+        <v>1.623827132912477</v>
       </c>
       <c r="E45">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F45">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G45">
-        <v>0.01062352066129244</v>
+        <v>0.002114811314904941</v>
       </c>
       <c r="H45">
-        <v>0.01183560526499676</v>
+        <v>0.008831447190285894</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.82540961502093</v>
+        <v>43.76082415269841</v>
       </c>
       <c r="D46">
-        <v>2.00690833290617</v>
+        <v>1.621231027073514</v>
       </c>
       <c r="E46">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F46">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G46">
-        <v>0.01241907847149126</v>
+        <v>0.004556274047965614</v>
       </c>
       <c r="H46">
-        <v>0.011921059887991</v>
+        <v>0.008817327847683167</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>44.51348848674285</v>
+        <v>43.87201600043794</v>
       </c>
       <c r="D47">
-        <v>1.970578000999878</v>
+        <v>1.606048745386117</v>
       </c>
       <c r="E47">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F47">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G47">
-        <v>0.00933204074776608</v>
+        <v>0.004698094520154817</v>
       </c>
       <c r="H47">
-        <v>0.01170525727493476</v>
+        <v>0.008734756546691414</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>44.57720594504584</v>
+        <v>43.8113042537917</v>
       </c>
       <c r="D48">
-        <v>1.937425198117307</v>
+        <v>1.596731252642873</v>
       </c>
       <c r="E48">
-        <v>187.9659565637139</v>
+        <v>213.0952552184426</v>
       </c>
       <c r="F48">
-        <v>266.1844436142866</v>
+        <v>290.7220162077516</v>
       </c>
       <c r="G48">
-        <v>0.005669893314910768</v>
+        <v>0.003612599312059084</v>
       </c>
       <c r="H48">
-        <v>0.01150832922289683</v>
+        <v>0.008684081851435989</v>
       </c>
     </row>
   </sheetData>

--- a/Empirical Application/Estimates/emp_app_rf_c3_L5_hstar.xlsx
+++ b/Empirical Application/Estimates/emp_app_rf_c3_L5_hstar.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>41.67124893688503</v>
+        <v>40.77744341114674</v>
       </c>
       <c r="D2">
-        <v>1.607666899242024</v>
+        <v>1.747005631827173</v>
       </c>
       <c r="E2">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F2">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="H2">
-        <v>0.008743557138844699</v>
+        <v>0.01260680756835923</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>42.61779296785603</v>
+        <v>42.03951662166218</v>
       </c>
       <c r="D3">
-        <v>1.495207414055137</v>
+        <v>1.579436187801124</v>
       </c>
       <c r="E3">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F3">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="H3">
-        <v>0.008131927991662404</v>
+        <v>0.01139758666106091</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>43.24313759373642</v>
+        <v>43.3406701344063</v>
       </c>
       <c r="D4">
-        <v>1.449112878191237</v>
+        <v>1.499541858897947</v>
       </c>
       <c r="E4">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F4">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="H4">
-        <v>0.007881235383445767</v>
+        <v>0.01082105020809474</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.28115084616645</v>
+        <v>44.83317707737831</v>
       </c>
       <c r="D5">
-        <v>1.398422876508</v>
+        <v>1.428027351651172</v>
       </c>
       <c r="E5">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F5">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="H5">
-        <v>0.00760554958914691</v>
+        <v>0.01030498453848199</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.47487335718174</v>
+        <v>45.83676382852968</v>
       </c>
       <c r="D6">
-        <v>1.348145961910952</v>
+        <v>1.380147641824744</v>
       </c>
       <c r="E6">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F6">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G6">
-        <v>0.02377265262685446</v>
+        <v>0.03162075260864339</v>
       </c>
       <c r="H6">
-        <v>0.007332110435954563</v>
+        <v>0.009959473180525268</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>46.54060571408717</v>
+        <v>46.67112683249772</v>
       </c>
       <c r="D7">
-        <v>1.308670799981986</v>
+        <v>1.363400625122339</v>
       </c>
       <c r="E7">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F7">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G7">
-        <v>0.02451757966394461</v>
+        <v>0.02894756381772212</v>
       </c>
       <c r="H7">
-        <v>0.007117418366313898</v>
+        <v>0.009838622730437993</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>47.19201833903859</v>
+        <v>47.54957708179765</v>
       </c>
       <c r="D8">
-        <v>1.272586640099556</v>
+        <v>1.351939636887082</v>
       </c>
       <c r="E8">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F8">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G8">
-        <v>0.02468050465813856</v>
+        <v>0.02630566842119593</v>
       </c>
       <c r="H8">
-        <v>0.006921168811205196</v>
+        <v>0.009755917517247583</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>47.57403590509238</v>
+        <v>48.11253051317543</v>
       </c>
       <c r="D9">
-        <v>1.248787964923071</v>
+        <v>1.363262460605587</v>
       </c>
       <c r="E9">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F9">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G9">
-        <v>0.02058053161828708</v>
+        <v>0.020495958973732</v>
       </c>
       <c r="H9">
-        <v>0.006791735856945512</v>
+        <v>0.009837625702469831</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>47.82742449512752</v>
+        <v>48.21118704103284</v>
       </c>
       <c r="D10">
-        <v>1.233809400890184</v>
+        <v>1.359982903435542</v>
       </c>
       <c r="E10">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F10">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G10">
-        <v>0.01470344461216109</v>
+        <v>0.01484014507814471</v>
       </c>
       <c r="H10">
-        <v>0.006710272507453687</v>
+        <v>0.009813959639007318</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>47.82272719453828</v>
+        <v>48.15084395095571</v>
       </c>
       <c r="D11">
-        <v>1.217452771205145</v>
+        <v>1.350976301825684</v>
       </c>
       <c r="E11">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F11">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G11">
-        <v>0.008013259252819437</v>
+        <v>0.009248231990362444</v>
       </c>
       <c r="H11">
-        <v>0.006621314324438604</v>
+        <v>0.009748965862644045</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>47.56849626992933</v>
+        <v>48.05235217361464</v>
       </c>
       <c r="D12">
-        <v>1.205063241594242</v>
+        <v>1.343794864043859</v>
       </c>
       <c r="E12">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F12">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G12">
-        <v>0.002352987068067103</v>
+        <v>0.003142344323856205</v>
       </c>
       <c r="H12">
-        <v>0.006553931858501528</v>
+        <v>0.009697142901956207</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.38706456290566</v>
+        <v>47.69402896125476</v>
       </c>
       <c r="D13">
-        <v>1.194477906216937</v>
+        <v>1.33951194662655</v>
       </c>
       <c r="E13">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F13">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G13">
-        <v>-0.00116857088866702</v>
+        <v>-0.002615634699504188</v>
       </c>
       <c r="H13">
-        <v>0.006496361795481051</v>
+        <v>0.009666236352642615</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.20583232748037</v>
+        <v>47.0270808259878</v>
       </c>
       <c r="D14">
-        <v>1.190452294501613</v>
+        <v>1.339285158911757</v>
       </c>
       <c r="E14">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F14">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G14">
-        <v>-0.003884951047794649</v>
+        <v>-0.007400663844031463</v>
       </c>
       <c r="H14">
-        <v>0.006474467853353902</v>
+        <v>0.009664599798628605</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>46.95886406615703</v>
+        <v>46.49207204644909</v>
       </c>
       <c r="D15">
-        <v>1.195973910175266</v>
+        <v>1.348412792427472</v>
       </c>
       <c r="E15">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F15">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G15">
-        <v>-0.00539914455238284</v>
+        <v>-0.01036732440316639</v>
       </c>
       <c r="H15">
-        <v>0.006504498055607918</v>
+        <v>0.009730466969970679</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>46.72484097542524</v>
+        <v>46.28349015200052</v>
       </c>
       <c r="D16">
-        <v>1.202662079407633</v>
+        <v>1.367949901573458</v>
       </c>
       <c r="E16">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F16">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G16">
-        <v>-0.005272845590650554</v>
+        <v>-0.01105538763508829</v>
       </c>
       <c r="H16">
-        <v>0.006540872748565169</v>
+        <v>0.009871451389802154</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>46.72084053257171</v>
+        <v>46.01614195893912</v>
       </c>
       <c r="D17">
-        <v>1.211421401065813</v>
+        <v>1.397478026952083</v>
       </c>
       <c r="E17">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F17">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G17">
-        <v>-0.004163900189587189</v>
+        <v>-0.01048679376447272</v>
       </c>
       <c r="H17">
-        <v>0.006588511739858655</v>
+        <v>0.01008453335572196</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.78111637424269</v>
+        <v>46.05025628982244</v>
       </c>
       <c r="D18">
-        <v>1.230706203223233</v>
+        <v>1.428244353387635</v>
       </c>
       <c r="E18">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F18">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G18">
-        <v>-0.002654474707735499</v>
+        <v>-0.006105153351033499</v>
       </c>
       <c r="H18">
-        <v>0.006693395263711896</v>
+        <v>0.01030655047455212</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.84452236545862</v>
+        <v>46.6796731718695</v>
       </c>
       <c r="D19">
-        <v>1.251198613402112</v>
+        <v>1.452048312115846</v>
       </c>
       <c r="E19">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F19">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G19">
-        <v>-0.0007146356293650236</v>
+        <v>0.00117250703387759</v>
       </c>
       <c r="H19">
-        <v>0.006804846559621608</v>
+        <v>0.01047832549438297</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.20796699554209</v>
+        <v>47.16411033903055</v>
       </c>
       <c r="D20">
-        <v>1.281102853457087</v>
+        <v>1.474201113166425</v>
       </c>
       <c r="E20">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F20">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G20">
-        <v>0.003019537625730306</v>
+        <v>0.005503876168937705</v>
       </c>
       <c r="H20">
-        <v>0.006967485618581942</v>
+        <v>0.01063818536824766</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.52900672303898</v>
+        <v>47.82958712747716</v>
       </c>
       <c r="D21">
-        <v>1.297277263174049</v>
+        <v>1.495883533719671</v>
       </c>
       <c r="E21">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F21">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G21">
-        <v>0.005051038690420473</v>
+        <v>0.01133403230336274</v>
       </c>
       <c r="H21">
-        <v>0.007055452768750936</v>
+        <v>0.01079465086472412</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>47.93125125299256</v>
+        <v>48.37449946480843</v>
       </c>
       <c r="D22">
-        <v>1.315538075147476</v>
+        <v>1.520255213868348</v>
       </c>
       <c r="E22">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F22">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G22">
-        <v>0.007188342992186669</v>
+        <v>0.01452651984366242</v>
       </c>
       <c r="H22">
-        <v>0.007154767155933153</v>
+        <v>0.01097052269716385</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>48.3228787027171</v>
+        <v>48.80315164330265</v>
       </c>
       <c r="D23">
-        <v>1.331072848259227</v>
+        <v>1.536893557604625</v>
       </c>
       <c r="E23">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F23">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G23">
-        <v>0.00923972710786547</v>
+        <v>0.01327174044645716</v>
       </c>
       <c r="H23">
-        <v>0.00723925553869803</v>
+        <v>0.01109058893731677</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>48.51722002636058</v>
+        <v>49.20075537431794</v>
       </c>
       <c r="D24">
-        <v>1.344282331009813</v>
+        <v>1.545317071172962</v>
       </c>
       <c r="E24">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F24">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G24">
-        <v>0.008182831442615602</v>
+        <v>0.0127290314705462</v>
       </c>
       <c r="H24">
-        <v>0.00731109745275298</v>
+        <v>0.01115137501188392</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>48.41962644929522</v>
+        <v>49.22131603122841</v>
       </c>
       <c r="D25">
-        <v>1.353895646254992</v>
+        <v>1.551791315036417</v>
       </c>
       <c r="E25">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F25">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G25">
-        <v>0.005566373289101501</v>
+        <v>0.008698305648445315</v>
       </c>
       <c r="H25">
-        <v>0.007363381026657238</v>
+        <v>0.01119809469329207</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>48.41192693033257</v>
+        <v>49.03822387546529</v>
       </c>
       <c r="D26">
-        <v>1.358668253736822</v>
+        <v>1.575222439643978</v>
       </c>
       <c r="E26">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F26">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G26">
-        <v>0.00300422298337506</v>
+        <v>0.004148277566605385</v>
       </c>
       <c r="H26">
-        <v>0.007389337626397104</v>
+        <v>0.01136717925355695</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>48.2528804161117</v>
+        <v>48.33086425219819</v>
       </c>
       <c r="D27">
-        <v>1.364178746863642</v>
+        <v>1.58098141870627</v>
       </c>
       <c r="E27">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F27">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G27">
-        <v>-0.0004374892912837325</v>
+        <v>-0.002951796194402867</v>
       </c>
       <c r="H27">
-        <v>0.007419307336876482</v>
+        <v>0.01140873741427827</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>47.91059824716486</v>
+        <v>47.94849356181578</v>
       </c>
       <c r="D28">
-        <v>1.380779290381274</v>
+        <v>1.58514643707076</v>
       </c>
       <c r="E28">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F28">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G28">
-        <v>-0.00379138611997325</v>
+        <v>-0.007826636328138514</v>
       </c>
       <c r="H28">
-        <v>0.007509592084824409</v>
+        <v>0.01143879317602467</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>47.6719849423369</v>
+        <v>47.37271424373009</v>
       </c>
       <c r="D29">
-        <v>1.389073385614118</v>
+        <v>1.598418990096922</v>
       </c>
       <c r="E29">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F29">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G29">
-        <v>-0.004672759418489525</v>
+        <v>-0.01155376117186453</v>
       </c>
       <c r="H29">
-        <v>0.007554700866760259</v>
+        <v>0.01153457107100871</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>47.20762101116539</v>
+        <v>47.08938371363259</v>
       </c>
       <c r="D30">
-        <v>1.383126330511562</v>
+        <v>1.62268787113901</v>
       </c>
       <c r="E30">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F30">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G30">
-        <v>-0.007526911994794894</v>
+        <v>-0.01218025101145437</v>
       </c>
       <c r="H30">
-        <v>0.007522356843180765</v>
+        <v>0.0117097010806796</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.74537979571613</v>
+        <v>46.56238554998599</v>
       </c>
       <c r="D31">
-        <v>1.405334687260584</v>
+        <v>1.639363343039831</v>
       </c>
       <c r="E31">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F31">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G31">
-        <v>-0.009421878877472301</v>
+        <v>-0.01105299188882625</v>
       </c>
       <c r="H31">
-        <v>0.00764314059277869</v>
+        <v>0.01183003524648613</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.3245389214069</v>
+        <v>46.14017582652806</v>
       </c>
       <c r="D32">
-        <v>1.417278162962148</v>
+        <v>1.651568283607956</v>
       </c>
       <c r="E32">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F32">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G32">
-        <v>-0.009912870785987283</v>
+        <v>-0.01130198584554827</v>
       </c>
       <c r="H32">
-        <v>0.007708097122195489</v>
+        <v>0.0119181089964057</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.64055908417615</v>
+        <v>45.72997326425876</v>
       </c>
       <c r="D33">
-        <v>1.428318380251999</v>
+        <v>1.660718359124908</v>
       </c>
       <c r="E33">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F33">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G33">
-        <v>-0.0126964116135047</v>
+        <v>-0.01026713112169579</v>
       </c>
       <c r="H33">
-        <v>0.007768141134263278</v>
+        <v>0.01198413811455887</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>44.97883391957774</v>
+        <v>45.24470494426723</v>
       </c>
       <c r="D34">
-        <v>1.436279377678599</v>
+        <v>1.681741689096534</v>
       </c>
       <c r="E34">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F34">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G34">
-        <v>-0.0139299193224228</v>
+        <v>-0.01152924230853354</v>
       </c>
       <c r="H34">
-        <v>0.007811438309763059</v>
+        <v>0.01213584745685859</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>44.61628781518746</v>
+        <v>44.54255384275535</v>
       </c>
       <c r="D35">
-        <v>1.443393070395007</v>
+        <v>1.673533499601954</v>
       </c>
       <c r="E35">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F35">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G35">
-        <v>-0.01330682487830419</v>
+        <v>-0.01262394817019148</v>
       </c>
       <c r="H35">
-        <v>0.007850127281193288</v>
+        <v>0.01207661521194901</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>44.34401892943006</v>
+        <v>44.24500637492831</v>
       </c>
       <c r="D36">
-        <v>1.449517048408492</v>
+        <v>1.668591745206911</v>
       </c>
       <c r="E36">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F36">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G36">
-        <v>-0.01237824994985526</v>
+        <v>-0.01184480907249843</v>
       </c>
       <c r="H36">
-        <v>0.007883433528714574</v>
+        <v>0.01204095433852455</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>43.97491298462654</v>
+        <v>44.02745678175954</v>
       </c>
       <c r="D37">
-        <v>1.455862122481545</v>
+        <v>1.668614915030529</v>
       </c>
       <c r="E37">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F37">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G37">
-        <v>-0.01041028812218503</v>
+        <v>-0.01064072801562013</v>
       </c>
       <c r="H37">
-        <v>0.007917942243009866</v>
+        <v>0.01204112153747481</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>43.79902204259707</v>
+        <v>43.27192159585069</v>
       </c>
       <c r="D38">
-        <v>1.468180053137192</v>
+        <v>1.666340805034771</v>
       </c>
       <c r="E38">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F38">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G38">
-        <v>-0.007373824231129156</v>
+        <v>-0.01232989592760334</v>
       </c>
       <c r="H38">
-        <v>0.007984935306417936</v>
+        <v>0.01202471101962444</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>43.50242481135586</v>
+        <v>42.96238577287458</v>
       </c>
       <c r="D39">
-        <v>1.485317942114501</v>
+        <v>1.666120459851544</v>
       </c>
       <c r="E39">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F39">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G39">
-        <v>-0.006961643773947523</v>
+        <v>-0.009876050436754814</v>
       </c>
       <c r="H39">
-        <v>0.008078142494786949</v>
+        <v>0.01202312095644837</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>43.09269756808372</v>
+        <v>42.80926482245627</v>
       </c>
       <c r="D40">
-        <v>1.511700903844204</v>
+        <v>1.686109161374839</v>
       </c>
       <c r="E40">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F40">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G40">
-        <v>-0.007820758508414594</v>
+        <v>-0.008973384702950237</v>
       </c>
       <c r="H40">
-        <v>0.008221630510547161</v>
+        <v>0.01216736417413164</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>43.04501314344754</v>
+        <v>42.75038936958072</v>
       </c>
       <c r="D41">
-        <v>1.537017619426277</v>
+        <v>1.724848204326642</v>
       </c>
       <c r="E41">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F41">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G41">
-        <v>-0.005811874007368756</v>
+        <v>-0.007981671326117646</v>
       </c>
       <c r="H41">
-        <v>0.008359319573725672</v>
+        <v>0.01244691430893287</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>43.03182030502391</v>
+        <v>42.74118876157219</v>
       </c>
       <c r="D42">
-        <v>1.567092228906694</v>
+        <v>1.774024574729223</v>
       </c>
       <c r="E42">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F42">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G42">
-        <v>-0.004795010859832249</v>
+        <v>-0.003317080214240642</v>
       </c>
       <c r="H42">
-        <v>0.008522885214434232</v>
+        <v>0.01280178267757532</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>43.12032087721317</v>
+        <v>43.13985375708726</v>
       </c>
       <c r="D43">
-        <v>1.59464944552153</v>
+        <v>1.813859579698546</v>
       </c>
       <c r="E43">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F43">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G43">
-        <v>-0.002388149588391819</v>
+        <v>0.001109174901329224</v>
       </c>
       <c r="H43">
-        <v>0.008672759605810295</v>
+        <v>0.01308924153459552</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>43.23328836386224</v>
+        <v>43.70808247814793</v>
       </c>
       <c r="D44">
-        <v>1.620157213935352</v>
+        <v>1.850580844686165</v>
       </c>
       <c r="E44">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F44">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G44">
-        <v>0.0008786924736157609</v>
+        <v>0.005617610348072866</v>
       </c>
       <c r="H44">
-        <v>0.008811487740796356</v>
+        <v>0.01335423090436731</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>43.38338295383233</v>
+        <v>43.87762720923595</v>
       </c>
       <c r="D45">
-        <v>1.623827132912477</v>
+        <v>1.854387779225505</v>
       </c>
       <c r="E45">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F45">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G45">
-        <v>0.002114811314904941</v>
+        <v>0.007045236497845231</v>
       </c>
       <c r="H45">
-        <v>0.008831447190285894</v>
+        <v>0.01338170264818338</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>43.76082415269841</v>
+        <v>43.78855605864064</v>
       </c>
       <c r="D46">
-        <v>1.621231027073514</v>
+        <v>1.850148985880983</v>
       </c>
       <c r="E46">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F46">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G46">
-        <v>0.004556274047965614</v>
+        <v>0.006546045606677797</v>
       </c>
       <c r="H46">
-        <v>0.008817327847683167</v>
+        <v>0.01335111450865888</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>43.87201600043794</v>
+        <v>43.82717881302286</v>
       </c>
       <c r="D47">
-        <v>1.606048745386117</v>
+        <v>1.821048660209882</v>
       </c>
       <c r="E47">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F47">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G47">
-        <v>0.004698094520154817</v>
+        <v>0.004295781599597514</v>
       </c>
       <c r="H47">
-        <v>0.008734756546691414</v>
+        <v>0.01314111964703473</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.8113042537917</v>
+        <v>43.81321821280743</v>
       </c>
       <c r="D48">
-        <v>1.596731252642873</v>
+        <v>1.797654562133039</v>
       </c>
       <c r="E48">
-        <v>213.0952552184426</v>
+        <v>140.0074186219379</v>
       </c>
       <c r="F48">
-        <v>290.7220162077516</v>
+        <v>219.1084797542613</v>
       </c>
       <c r="G48">
-        <v>0.003612599312059084</v>
+        <v>0.0006570983416218645</v>
       </c>
       <c r="H48">
-        <v>0.008684081851435989</v>
+        <v>0.01297230227900963</v>
       </c>
     </row>
   </sheetData>

--- a/Empirical Application/Estimates/emp_app_rf_c3_L5_hstar.xlsx
+++ b/Empirical Application/Estimates/emp_app_rf_c3_L5_hstar.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>40.76941084160025</v>
+        <v>40.56675695172824</v>
       </c>
       <c r="D2">
-        <v>1.839629695116572</v>
+        <v>1.844110136535644</v>
       </c>
       <c r="E2">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F2">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="H2">
-        <v>0.01620719209780801</v>
+        <v>0.01638646244518351</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>42.13972679701669</v>
+        <v>42.34715679599026</v>
       </c>
       <c r="D3">
-        <v>1.628879525562201</v>
+        <v>1.633283531077443</v>
       </c>
       <c r="E3">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F3">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="H3">
-        <v>0.01435047686230141</v>
+        <v>0.01451309155244695</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>43.70901926344891</v>
+        <v>43.78961996233379</v>
       </c>
       <c r="D4">
-        <v>1.522439676047118</v>
+        <v>1.518971034621871</v>
       </c>
       <c r="E4">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F4">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="H4">
-        <v>0.01341273863567237</v>
+        <v>0.01349732931944748</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>45.02947500747181</v>
+        <v>44.98105996761836</v>
       </c>
       <c r="D5">
-        <v>1.45159446757424</v>
+        <v>1.453838366734961</v>
       </c>
       <c r="E5">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F5">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="H5">
-        <v>0.01278859025082233</v>
+        <v>0.01291857103644791</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>46.02433454206053</v>
+        <v>46.03811485994272</v>
       </c>
       <c r="D6">
-        <v>1.425677717859544</v>
+        <v>1.430560147204265</v>
       </c>
       <c r="E6">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F6">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G6">
-        <v>0.04824928871246321</v>
+        <v>0.04928260803986988</v>
       </c>
       <c r="H6">
-        <v>0.01256026291826626</v>
+        <v>0.01271172456747992</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>46.79638122154219</v>
+        <v>46.75068767157115</v>
       </c>
       <c r="D7">
-        <v>1.428960893812672</v>
+        <v>1.432063442144927</v>
       </c>
       <c r="E7">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F7">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G7">
-        <v>0.04047431002265141</v>
+        <v>0.03928402986606758</v>
       </c>
       <c r="H7">
-        <v>0.01258918779565029</v>
+        <v>0.01272508260158056</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>47.47553129350197</v>
+        <v>47.41498918143964</v>
       </c>
       <c r="D8">
-        <v>1.456420255121741</v>
+        <v>1.456833696314909</v>
       </c>
       <c r="E8">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F8">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G8">
-        <v>0.02788011767334524</v>
+        <v>0.02745957727981718</v>
       </c>
       <c r="H8">
-        <v>0.0128311055820399</v>
+        <v>0.0129451870474444</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>48.10185089997237</v>
+        <v>47.98225493624777</v>
       </c>
       <c r="D9">
-        <v>1.474147220795788</v>
+        <v>1.477186209796721</v>
       </c>
       <c r="E9">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F9">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G9">
-        <v>0.01676335172940875</v>
+        <v>0.01697791163419775</v>
       </c>
       <c r="H9">
-        <v>0.01298728067464315</v>
+        <v>0.01312603616877797</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>48.48929703559436</v>
+        <v>48.45197423810742</v>
       </c>
       <c r="D10">
-        <v>1.486544072783814</v>
+        <v>1.49270386858522</v>
       </c>
       <c r="E10">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F10">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G10">
-        <v>0.007697372316309447</v>
+        <v>0.007783842906067396</v>
       </c>
       <c r="H10">
-        <v>0.01309649730781198</v>
+        <v>0.01326392355843931</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>48.61561640064092</v>
+        <v>48.63260157456107</v>
       </c>
       <c r="D11">
-        <v>1.487893888252182</v>
+        <v>1.488218841291733</v>
       </c>
       <c r="E11">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F11">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G11">
-        <v>-0.002227844484328756</v>
+        <v>-0.001490697222822801</v>
       </c>
       <c r="H11">
-        <v>0.01310838922206543</v>
+        <v>0.01322407033608871</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>48.16983809118415</v>
+        <v>48.18315232710454</v>
       </c>
       <c r="D12">
-        <v>1.48284048953156</v>
+        <v>1.491686465295619</v>
       </c>
       <c r="E12">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F12">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G12">
-        <v>-0.01076314106707428</v>
+        <v>-0.01007086737441623</v>
       </c>
       <c r="H12">
-        <v>0.01306386862967157</v>
+        <v>0.013254883078445</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.71161128417721</v>
+        <v>47.69752582909</v>
       </c>
       <c r="D13">
-        <v>1.476671516675194</v>
+        <v>1.485009215679792</v>
       </c>
       <c r="E13">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F13">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G13">
-        <v>-0.01550804381356974</v>
+        <v>-0.01485580014422721</v>
       </c>
       <c r="H13">
-        <v>0.01300951979610213</v>
+        <v>0.01319555012544013</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.25591411267004</v>
+        <v>47.28352972491351</v>
       </c>
       <c r="D14">
-        <v>1.474575901751641</v>
+        <v>1.484220513192764</v>
       </c>
       <c r="E14">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F14">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G14">
-        <v>-0.01530301562094096</v>
+        <v>-0.01485995105465134</v>
       </c>
       <c r="H14">
-        <v>0.01299105736656035</v>
+        <v>0.01318854184354413</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>46.43992610404959</v>
+        <v>46.5121761159195</v>
       </c>
       <c r="D15">
-        <v>1.482812467391573</v>
+        <v>1.485649919651375</v>
       </c>
       <c r="E15">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F15">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G15">
-        <v>-0.01396021359575967</v>
+        <v>-0.01402077033466909</v>
       </c>
       <c r="H15">
-        <v>0.01306362175378836</v>
+        <v>0.0132012433166226</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>45.75342872277009</v>
+        <v>45.80365040153304</v>
       </c>
       <c r="D16">
-        <v>1.507203912715551</v>
+        <v>1.517644396814394</v>
       </c>
       <c r="E16">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F16">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G16">
-        <v>-0.005973410591533934</v>
+        <v>-0.005616847802963276</v>
       </c>
       <c r="H16">
-        <v>0.01327851110948765</v>
+        <v>0.01348554103187186</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>45.62056388980121</v>
+        <v>45.60532691317142</v>
       </c>
       <c r="D17">
-        <v>1.543789398333909</v>
+        <v>1.548370483466794</v>
       </c>
       <c r="E17">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F17">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G17">
-        <v>0.0006485931657573829</v>
+        <v>0.001511988109168705</v>
       </c>
       <c r="H17">
-        <v>0.01360083032132814</v>
+        <v>0.01375856803554252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.04081453624381</v>
+        <v>46.0743820693632</v>
       </c>
       <c r="D18">
-        <v>1.587766538783337</v>
+        <v>1.59686690367542</v>
       </c>
       <c r="E18">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F18">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G18">
-        <v>0.007868901908118887</v>
+        <v>0.007837041169003588</v>
       </c>
       <c r="H18">
-        <v>0.01398827023114705</v>
+        <v>0.0141894993301166</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.38198222531937</v>
+        <v>46.38927832101402</v>
       </c>
       <c r="D19">
-        <v>1.610172870280345</v>
+        <v>1.62073680769813</v>
       </c>
       <c r="E19">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F19">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G19">
-        <v>0.01819274028691562</v>
+        <v>0.01744334232306266</v>
       </c>
       <c r="H19">
-        <v>0.01418567067523814</v>
+        <v>0.01440160341115217</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.21409239653872</v>
+        <v>47.28445667863041</v>
       </c>
       <c r="D20">
-        <v>1.619288567009185</v>
+        <v>1.634027084269445</v>
       </c>
       <c r="E20">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F20">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G20">
-        <v>0.02282812819901401</v>
+        <v>0.02268742139654423</v>
       </c>
       <c r="H20">
-        <v>0.01426598023339643</v>
+        <v>0.01451969864505782</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.81538619069839</v>
+        <v>47.93944392655699</v>
       </c>
       <c r="D21">
-        <v>1.632117739917792</v>
+        <v>1.647981713743124</v>
       </c>
       <c r="E21">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F21">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G21">
-        <v>0.02357325760897435</v>
+        <v>0.02357295612974397</v>
       </c>
       <c r="H21">
-        <v>0.01437900562667951</v>
+        <v>0.01464369721069472</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>48.51493841796906</v>
+        <v>48.53745631195408</v>
       </c>
       <c r="D22">
-        <v>1.66419727984045</v>
+        <v>1.663731575094782</v>
       </c>
       <c r="E22">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F22">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G22">
-        <v>0.0212023876681136</v>
+        <v>0.02089806277352437</v>
       </c>
       <c r="H22">
-        <v>0.01466162732348946</v>
+        <v>0.01478364791452884</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>49.35076454995609</v>
+        <v>49.30311088760953</v>
       </c>
       <c r="D23">
-        <v>1.69052157152933</v>
+        <v>1.699134332936895</v>
       </c>
       <c r="E23">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F23">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G23">
-        <v>0.01509165795273377</v>
+        <v>0.01592227232383543</v>
       </c>
       <c r="H23">
-        <v>0.01489354511290815</v>
+        <v>0.01509823105701161</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>49.40592923461233</v>
+        <v>49.43363782498012</v>
       </c>
       <c r="D24">
-        <v>1.710310577387405</v>
+        <v>1.729279164671776</v>
       </c>
       <c r="E24">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F24">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G24">
-        <v>0.002246577406443873</v>
+        <v>0.002154748592834377</v>
       </c>
       <c r="H24">
-        <v>0.01506788684060359</v>
+        <v>0.01536609312411567</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>49.39228510723711</v>
+        <v>49.37699989393045</v>
       </c>
       <c r="D25">
-        <v>1.725456528643447</v>
+        <v>1.732149291332898</v>
       </c>
       <c r="E25">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F25">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G25">
-        <v>-0.002538278789785586</v>
+        <v>-0.003430697310255049</v>
       </c>
       <c r="H25">
-        <v>0.015201323119743</v>
+        <v>0.01539159660235898</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>49.43319656314198</v>
+        <v>49.4180721131271</v>
       </c>
       <c r="D26">
-        <v>1.755829621113415</v>
+        <v>1.750615575445001</v>
       </c>
       <c r="E26">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F26">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G26">
-        <v>-0.01107890070270665</v>
+        <v>-0.009637631916103961</v>
       </c>
       <c r="H26">
-        <v>0.01546891096395534</v>
+        <v>0.01555568499659856</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>48.79664749775677</v>
+        <v>48.93684189282769</v>
       </c>
       <c r="D27">
-        <v>1.737625383529594</v>
+        <v>1.76115160186255</v>
       </c>
       <c r="E27">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F27">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G27">
-        <v>-0.01900568259948892</v>
+        <v>-0.01799311434441346</v>
       </c>
       <c r="H27">
-        <v>0.01530853109169174</v>
+        <v>0.01564930641204013</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>47.57354478156974</v>
+        <v>47.62921645348391</v>
       </c>
       <c r="D28">
-        <v>1.759131418203967</v>
+        <v>1.751791486993641</v>
       </c>
       <c r="E28">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F28">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G28">
-        <v>-0.02048745749551317</v>
+        <v>-0.0214154986020429</v>
       </c>
       <c r="H28">
-        <v>0.01549799989411157</v>
+        <v>0.01556613395517695</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>47.4092615843327</v>
+        <v>47.39053235691618</v>
       </c>
       <c r="D29">
-        <v>1.78396973449203</v>
+        <v>1.796832129260774</v>
       </c>
       <c r="E29">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F29">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G29">
-        <v>-0.02293071887311897</v>
+        <v>-0.02219694106399572</v>
       </c>
       <c r="H29">
-        <v>0.01571682619623931</v>
+        <v>0.01596635776957658</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>46.742314305536</v>
+        <v>46.99543520537745</v>
       </c>
       <c r="D30">
-        <v>1.802357425943</v>
+        <v>1.824448275990141</v>
       </c>
       <c r="E30">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F30">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G30">
-        <v>-0.02323842249833485</v>
+        <v>-0.02336601160286671</v>
       </c>
       <c r="H30">
-        <v>0.0158788223025058</v>
+        <v>0.01621175035340109</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.30985533403786</v>
+        <v>46.42421259250337</v>
       </c>
       <c r="D31">
-        <v>1.818963942550879</v>
+        <v>1.850412291976688</v>
       </c>
       <c r="E31">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F31">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G31">
-        <v>-0.02132891809408721</v>
+        <v>-0.02126228370919216</v>
       </c>
       <c r="H31">
-        <v>0.01602512620565207</v>
+        <v>0.016442462372418</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.12793603533022</v>
+        <v>46.00715804865325</v>
       </c>
       <c r="D32">
-        <v>1.849886536110744</v>
+        <v>1.84314128936084</v>
       </c>
       <c r="E32">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F32">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G32">
-        <v>-0.01930881084673786</v>
+        <v>-0.02003479217123041</v>
       </c>
       <c r="H32">
-        <v>0.01629755517074083</v>
+        <v>0.01637785342692017</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.72337008753807</v>
+        <v>45.82548932369114</v>
       </c>
       <c r="D33">
-        <v>1.839429121933437</v>
+        <v>1.874722051874292</v>
       </c>
       <c r="E33">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F33">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G33">
-        <v>-0.02572180591023865</v>
+        <v>-0.02619740673439614</v>
       </c>
       <c r="H33">
-        <v>0.01620542504212426</v>
+        <v>0.01665847494114769</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.71504896340841</v>
+        <v>45.67951025666843</v>
       </c>
       <c r="D34">
-        <v>1.885894821094408</v>
+        <v>1.897665504758576</v>
       </c>
       <c r="E34">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F34">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G34">
-        <v>-0.0235309136408778</v>
+        <v>-0.02617213856808807</v>
       </c>
       <c r="H34">
-        <v>0.01661478922789486</v>
+        <v>0.01686234672819694</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>45.38402060270282</v>
+        <v>45.53487649935694</v>
       </c>
       <c r="D35">
-        <v>1.90749947507397</v>
+        <v>1.915298898303104</v>
       </c>
       <c r="E35">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F35">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G35">
-        <v>-0.02177957508439641</v>
+        <v>-0.02248878842827247</v>
       </c>
       <c r="H35">
-        <v>0.01680512686931418</v>
+        <v>0.01701903419245076</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>44.48413504609168</v>
+        <v>44.42364970608705</v>
       </c>
       <c r="D36">
-        <v>1.889753075613539</v>
+        <v>1.862110955092169</v>
       </c>
       <c r="E36">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F36">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G36">
-        <v>-0.0213683385331509</v>
+        <v>-0.02060316482657125</v>
       </c>
       <c r="H36">
-        <v>0.01664878056447732</v>
+        <v>0.01654641478827577</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>43.29377263869451</v>
+        <v>43.1989472794128</v>
       </c>
       <c r="D37">
-        <v>1.861741259461039</v>
+        <v>1.873557446509655</v>
       </c>
       <c r="E37">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F37">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G37">
-        <v>-0.01893069844798006</v>
+        <v>-0.01983192336192965</v>
       </c>
       <c r="H37">
-        <v>0.01640199563455517</v>
+        <v>0.01664812644747966</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>42.97736812299555</v>
+        <v>42.80789303448336</v>
       </c>
       <c r="D38">
-        <v>1.824186091100169</v>
+        <v>1.826308961580305</v>
       </c>
       <c r="E38">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F38">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G38">
-        <v>-0.01830956174370755</v>
+        <v>-0.01797265714230254</v>
       </c>
       <c r="H38">
-        <v>0.01607113348903432</v>
+        <v>0.01622828410262867</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>42.82512332053444</v>
+        <v>42.82600644397978</v>
       </c>
       <c r="D39">
-        <v>1.80456214062603</v>
+        <v>1.81813780399742</v>
       </c>
       <c r="E39">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F39">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G39">
-        <v>-0.01286668438523191</v>
+        <v>-0.0139845316188449</v>
       </c>
       <c r="H39">
-        <v>0.01589824590415975</v>
+        <v>0.01615567652664236</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>42.70900187002608</v>
+        <v>42.71065167640185</v>
       </c>
       <c r="D40">
-        <v>1.832308962926026</v>
+        <v>1.829007001185765</v>
       </c>
       <c r="E40">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F40">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G40">
-        <v>-0.003924349735936384</v>
+        <v>-0.00377885548501844</v>
       </c>
       <c r="H40">
-        <v>0.01614269623039309</v>
+        <v>0.01625225844331178</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>42.69445833586126</v>
+        <v>42.65238158578239</v>
       </c>
       <c r="D41">
-        <v>1.879998441021729</v>
+        <v>1.887594105841304</v>
       </c>
       <c r="E41">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F41">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G41">
-        <v>0.00398102015948969</v>
+        <v>0.003794477887516123</v>
       </c>
       <c r="H41">
-        <v>0.01656284194482302</v>
+        <v>0.01677285391707971</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>42.7855190844152</v>
+        <v>42.80388511390002</v>
       </c>
       <c r="D42">
-        <v>1.937499575099587</v>
+        <v>1.947616593731073</v>
       </c>
       <c r="E42">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F42">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G42">
-        <v>0.005190577930873674</v>
+        <v>0.00616277830884564</v>
       </c>
       <c r="H42">
-        <v>0.01706942863904498</v>
+        <v>0.01730620397258122</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>43.32535110106571</v>
+        <v>43.29735144034176</v>
       </c>
       <c r="D43">
-        <v>1.972767685619425</v>
+        <v>1.994011002534984</v>
       </c>
       <c r="E43">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F43">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G43">
-        <v>0.004902628361016781</v>
+        <v>0.005799831878879891</v>
       </c>
       <c r="H43">
-        <v>0.01738014173725114</v>
+        <v>0.01771845713602838</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>43.85623908834186</v>
+        <v>43.8190328284841</v>
       </c>
       <c r="D44">
-        <v>1.990225682020838</v>
+        <v>2.000859530865259</v>
       </c>
       <c r="E44">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F44">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="G44">
-        <v>0.007027623999745681</v>
+        <v>0.006800241419181096</v>
       </c>
       <c r="H44">
-        <v>0.0175339472025965</v>
+        <v>0.01777931204380501</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,19 +1541,19 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>43.93073586421286</v>
+        <v>43.80606374141538</v>
       </c>
       <c r="D45">
-        <v>2.011128091617557</v>
+        <v>2.023316381068855</v>
       </c>
       <c r="E45">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F45">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="H45">
-        <v>0.01771809805020479</v>
+        <v>0.01797885995865441</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1564,19 +1564,19 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>43.80786059193534</v>
+        <v>43.79393756389866</v>
       </c>
       <c r="D46">
-        <v>2.014591123466131</v>
+        <v>2.019108096300842</v>
       </c>
       <c r="E46">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F46">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="H46">
-        <v>0.01774860746335443</v>
+        <v>0.01794146582533045</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1587,19 +1587,19 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>43.60954385829712</v>
+        <v>43.75397954460056</v>
       </c>
       <c r="D47">
-        <v>2.01079812708006</v>
+        <v>2.002931429596643</v>
       </c>
       <c r="E47">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F47">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="H47">
-        <v>0.01771519105285697</v>
+        <v>0.01779772259861917</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1610,19 +1610,19 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.83342170998539</v>
+        <v>43.79869030347083</v>
       </c>
       <c r="D48">
-        <v>1.946931449600432</v>
+        <v>1.968477474906562</v>
       </c>
       <c r="E48">
-        <v>116.4201534396577</v>
+        <v>114.9265198772596</v>
       </c>
       <c r="F48">
-        <v>179.4703194958829</v>
+        <v>177.9392076589054</v>
       </c>
       <c r="H48">
-        <v>0.01715252373273878</v>
+        <v>0.01749157036647664</v>
       </c>
     </row>
   </sheetData>
